--- a/medicine/Enfance/John_Alcorn/John_Alcorn.xlsx
+++ b/medicine/Enfance/John_Alcorn/John_Alcorn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Alcorn (New York, 10 février 1935 - Lyme, 27 janvier 1992) est un artiste et designer américain, illustrateur de livres pour enfants[2]. Outre ses réalisations dans les domaines de l'emballage, du design d'entreprise et du design dimensionnel, Alcorn a conçu les titres d'ouverture de plusieurs films de Federico Fellini. Au cours de sa carrière, Alcorn a créé de nombreuses jaquettes de livres et couvertures de livres de poche, et son travail a été présenté dans de nombreuses expositions importantes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Alcorn (New York, 10 février 1935 - Lyme, 27 janvier 1992) est un artiste et designer américain, illustrateur de livres pour enfants. Outre ses réalisations dans les domaines de l'emballage, du design d'entreprise et du design dimensionnel, Alcorn a conçu les titres d'ouverture de plusieurs films de Federico Fellini. Au cours de sa carrière, Alcorn a créé de nombreuses jaquettes de livres et couvertures de livres de poche, et son travail a été présenté dans de nombreuses expositions importantes.
 </t>
         </is>
       </c>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Petite enfance et éducation
-Né à New York, John Alcorn est né dans le quartier résidentiel de Corona, dans le Queens, en 1935. À l'âge de cinq ans, sa famille a déménagé à Great Neck, Long Island.  Il a fait ses études dans les écoles locales.  Il a étudié les arts graphiques à la Cooper Union.  Au cours de ses deux premières années chez Cooper Union, il a étudié le dessin, la calligraphie, l'architecture, la mécanique de la typographie et le design dimensionnel.  Au cours de sa dernière année, il a étudié l’illustration, les graphiques et la conception publicitaire.
-Carrière</t>
+          <t>Petite enfance et éducation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à New York, John Alcorn est né dans le quartier résidentiel de Corona, dans le Queens, en 1935. À l'âge de cinq ans, sa famille a déménagé à Great Neck, Long Island.  Il a fait ses études dans les écoles locales.  Il a étudié les arts graphiques à la Cooper Union.  Au cours de ses deux premières années chez Cooper Union, il a étudié le dessin, la calligraphie, l'architecture, la mécanique de la typographie et le design dimensionnel.  Au cours de sa dernière année, il a étudié l’illustration, les graphiques et la conception publicitaire.
+</t>
         </is>
       </c>
     </row>
